--- a/data/trans_dic/P36$nada-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P36$nada-Clase-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -685,27 +686,27 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,52; 2,39</t>
+          <t>0,52; 2,18</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>2,15; 6,67</t>
+          <t>2,12; 6,77</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,75; 3,71</t>
+          <t>0,74; 3,76</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,37; 3,53</t>
+          <t>0,37; 3,07</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,31; 2,68</t>
+          <t>0,31; 2,62</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -715,17 +716,17 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,49; 1,99</t>
+          <t>0,53; 2,15</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>1,53; 4,33</t>
+          <t>1,6; 4,37</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,41; 2,05</t>
+          <t>0,41; 2,14</t>
         </is>
       </c>
     </row>
@@ -795,47 +796,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,18; 4,28</t>
+          <t>1,21; 4,32</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,21; 2,54</t>
+          <t>0,21; 2,77</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,12</t>
+          <t>0,0; 1,16</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,56; 3,38</t>
+          <t>0,55; 3,3</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,53; 3,6</t>
+          <t>0,51; 3,28</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,66</t>
+          <t>0,0; 1,82</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>1,13; 3,27</t>
+          <t>1,06; 3,19</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,49; 2,34</t>
+          <t>0,51; 2,41</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0,12; 1,09</t>
+          <t>0,12; 1,01</t>
         </is>
       </c>
     </row>
@@ -905,47 +906,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,34; 4,07</t>
+          <t>1,37; 4,04</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,11; 3,35</t>
+          <t>1,07; 3,37</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,4; 2,68</t>
+          <t>0,39; 2,72</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,67; 6,12</t>
+          <t>0,6; 5,56</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,36; 3,45</t>
+          <t>0,36; 3,23</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,87</t>
+          <t>0,0; 3,74</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>1,47; 3,77</t>
+          <t>1,43; 3,72</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>1,06; 2,86</t>
+          <t>1,05; 2,86</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,57; 2,58</t>
+          <t>0,57; 2,5</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1016,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,31; 2,86</t>
+          <t>1,27; 2,83</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>2,01; 4,22</t>
+          <t>2,03; 4,33</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1,18; 2,93</t>
+          <t>1,18; 2,95</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>1,03; 3,22</t>
+          <t>0,94; 3,09</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>1,51; 3,97</t>
+          <t>1,48; 4,06</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0,91; 2,81</t>
+          <t>0,88; 2,72</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>1,34; 2,63</t>
+          <t>1,4; 2,69</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>2,04; 3,79</t>
+          <t>2,07; 3,73</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>1,21; 2,45</t>
+          <t>1,18; 2,4</t>
         </is>
       </c>
     </row>
@@ -1125,47 +1126,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>2,08; 6,24</t>
+          <t>1,98; 6,11</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>1,54; 4,9</t>
+          <t>1,42; 4,66</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>1,77; 4,82</t>
+          <t>1,73; 4,71</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,83; 3,12</t>
+          <t>0,88; 3,17</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,27; 1,62</t>
+          <t>0,27; 1,51</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,25; 1,47</t>
+          <t>0,25; 1,61</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>1,63; 3,54</t>
+          <t>1,62; 3,85</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,86; 2,42</t>
+          <t>0,89; 2,37</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>1,15; 2,72</t>
+          <t>1,1; 2,64</t>
         </is>
       </c>
     </row>
@@ -1235,47 +1236,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,31; 2,69</t>
+          <t>0,31; 3,28</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>1,1; 5,43</t>
+          <t>1,19; 5,29</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>1,69; 5,74</t>
+          <t>1,64; 5,97</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0,91; 2,27</t>
+          <t>0,87; 2,19</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>1,44; 3,15</t>
+          <t>1,44; 3,2</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0,6; 2,03</t>
+          <t>0,63; 1,95</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0,82; 1,97</t>
+          <t>0,85; 2,04</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>1,61; 3,27</t>
+          <t>1,54; 3,23</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>1,03; 2,4</t>
+          <t>1,02; 2,34</t>
         </is>
       </c>
     </row>
@@ -1345,47 +1346,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>1,64; 2,61</t>
+          <t>1,57; 2,54</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>2,04; 3,24</t>
+          <t>2,03; 3,29</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>1,43; 2,47</t>
+          <t>1,44; 2,44</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>1,18; 2,07</t>
+          <t>1,18; 2,06</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>1,28; 2,22</t>
+          <t>1,3; 2,22</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0,7; 1,35</t>
+          <t>0,68; 1,36</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>1,53; 2,18</t>
+          <t>1,53; 2,17</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>1,82; 2,53</t>
+          <t>1,8; 2,57</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>1,17; 1,74</t>
+          <t>1,15; 1,74</t>
         </is>
       </c>
     </row>
@@ -1412,4 +1413,1291 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que no desayuna</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Grupo I y II</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>5261</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>17178</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>7787</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>3540</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>3034</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>8802</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>20212</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>7787</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>2481; 10294</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>9274; 29603</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>3171; 16145</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>1144; 9409</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>966; 8202</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>0; 2001</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>4161; 16778</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>11993; 32762</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>3178; 16628</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Grupo III</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>8507</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>3749</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>871</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>5810</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>4833</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>1912</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>14317</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>8582</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>2784</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>4413; 15768</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>896; 11527</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>0; 4381</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>2043; 12246</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>1708; 11087</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>0; 6747</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>7812; 23495</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>3823; 18160</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>868; 7534</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Grupo IV y V</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>13166</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>12968</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>6852</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>4065</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>3321</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>1965</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>17231</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>16289</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>8817</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>7411; 21838</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>6696; 21132</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>2051; 14142</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>1012; 9331</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>942; 8402</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>0; 6218</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>10133; 26350</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>9341; 25361</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>3905; 17159</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VI</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>24654</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>34277</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>21176</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>12978</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>19750</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>13342</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>37633</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>54027</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>34518</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>15714; 34955</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>23451; 50085</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>13595; 33865</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>6694; 22023</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>11349; 31028</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>7232; 22448</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>27275; 52372</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>39761; 71770</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>23356; 47437</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VII</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>13000</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>13657</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>18578</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>9434</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>5123</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>5459</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>22434</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>18779</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>24037</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>6936; 21405</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>7243; 23734</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>10702; 29130</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>4959; 17967</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>2015; 11425</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>1823; 11911</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>14861; 35352</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>11334; 30019</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>14984; 35878</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>No ha trabajado</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>2953</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>7108</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>9115</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>17723</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>24207</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>12553</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>20676</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>31314</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>21667</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>918; 9792</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>3166; 14106</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>4718; 17152</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>10804; 27346</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>16017; 35469</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>6811; 21080</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>13201; 31593</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>21232; 44389</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>13898; 32048</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>132</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>67542</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>88935</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>64378</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>53550</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>60268</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>35232</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>121092</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>149203</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>99610</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>51134; 82824</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>69439; 112502</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>48823; 82355</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>39689; 69555</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>46181; 78728</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>23999; 48076</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>101680; 144072</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>125414; 178554</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>79412; 120574</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/data/trans_dic/P36$nada-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P36$nada-Clase-trans_dic.xlsx
@@ -1173,7 +1173,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -2354,7 +2354,7 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B19" s="3" t="inlineStr">
